--- a/df_rw_ww_transposed.xlsx
+++ b/df_rw_ww_transposed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,6 +1132,262 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>67382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>65085</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64834</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>99.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>67382</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>65085</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64811</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>99.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>67382</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>65085</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64795</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>99.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>67382</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>65085</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64817</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>99.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-05</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>67382</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>65085</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64824</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>99.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>67382</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>65085</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64807</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>99.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>67382</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>65085</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64793</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>99.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>67382</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>65085</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64764</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>99.51%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
